--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6521.992908524815</v>
+        <v>-9085.013244429578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.1979214741534</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>133.3401392184993</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>31.12666227143745</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>177.6695369583082</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.45195748319563</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -865,10 +865,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>216.0081031726443</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2661558657072</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>313.3403165929107</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>129.1225605509784</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>156.4979949567231</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>310.59083086775</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>315.6101783025588</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.8610631070505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>18.49945902053449</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>101.3999237630409</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1658,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>56.03635866484527</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>226.9652268912045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>166.7797097944361</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.0792452528011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>249.3969846839863</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>243.873892165261</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>205.5383435306678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2075.136160581604</v>
+        <v>1464.786352707293</v>
       </c>
       <c r="C2" t="n">
-        <v>1706.173643641192</v>
+        <v>1464.786352707293</v>
       </c>
       <c r="D2" t="n">
-        <v>1347.907945034442</v>
+        <v>1464.786352707293</v>
       </c>
       <c r="E2" t="n">
-        <v>962.1196924361979</v>
+        <v>1078.998100109049</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>668.0121953194413</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>252.3074450437302</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2406.199047925175</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2406.199047925175</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2075.136160581604</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2075.136160581604</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2075.136160581604</v>
+        <v>1464.786352707293</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.136160581604</v>
+        <v>1464.786352707293</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034357</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844858</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159576</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751778</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648285</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2548.223678696071</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1718.773326732726</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>1549.837143804819</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.720504392484</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392484</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.1271740756</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>2040.148693270335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>2040.148693270335</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>1812.159142372318</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1812.159142372318</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.810682795506</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.848165855094</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.582467248344</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1130.582467248344</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872918</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>1992.252897368465</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056586</v>
+        <v>1992.252897368465</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795506</v>
+        <v>1618.787139107385</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.810682795506</v>
+        <v>1228.647807131574</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>717.852508549538</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105704</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281866</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.1895564061562</v>
+        <v>349.6600800990966</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>349.6600800990966</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>349.6600800990966</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>349.6600800990966</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.388856484664</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.388856484664</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>965.9716864477036</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X7" t="n">
-        <v>737.9821355496863</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.1895564061562</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.226501951987</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.226501951987</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>775.9608033452369</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>775.9608033452369</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>364.9748985556293</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1989.96010776276</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1637.191452492646</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.365833927799</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.226501951987</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.0150268210029</v>
+        <v>622.6901078854036</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210029</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827658</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>525.807605964533</v>
+        <v>869.365981026385</v>
       </c>
       <c r="X10" t="n">
-        <v>525.807605964533</v>
+        <v>641.3764301283677</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.0150268210029</v>
+        <v>622.6901078854036</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5130,13 +5130,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>983.340348461437</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1748.203275569898</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1493.518787364011</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1204.10161732705</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,10 +5595,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>949.9304447718133</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,25 +6452,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1731.123815697113</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1476.439327491226</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.022157454266</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.022157454266</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.2295783107356</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
         <v>484.8112968429803</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.89229584329</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1582.207807637403</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,19 +6944,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883073568</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>35.19601322587742</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780633</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.678124267558</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.6784133439061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>117.1847295890538</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>111.2104624337826</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>59.21924749803964</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.75273492913618</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>37.12601365260468</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>42.31058222398312</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,19 +25123,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>80.64613085857638</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26314,22 +26314,22 @@
         <v>298593.7657794697</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26344,16 +26344,16 @@
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="N2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="N2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760023</v>
-      </c>
       <c r="P2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.9798340791</v>
+        <v>90558.97983407916</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
@@ -26427,25 +26427,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719707</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26454,7 +26454,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999654.770070374</v>
+        <v>-999841.1634589129</v>
       </c>
       <c r="C6" t="n">
-        <v>102365.0719591245</v>
+        <v>102365.0719591248</v>
       </c>
       <c r="D6" t="n">
-        <v>102365.0719591246</v>
+        <v>102365.0719591244</v>
       </c>
       <c r="E6" t="n">
-        <v>-293256.7000341704</v>
+        <v>-293291.4379596059</v>
       </c>
       <c r="F6" t="n">
-        <v>214228.7415903758</v>
+        <v>214194.00366494</v>
       </c>
       <c r="G6" t="n">
-        <v>214228.7415903755</v>
+        <v>214194.0036649398</v>
       </c>
       <c r="H6" t="n">
-        <v>214228.7415903757</v>
+        <v>214194.0036649399</v>
       </c>
       <c r="I6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.0036649399</v>
       </c>
       <c r="J6" t="n">
-        <v>46623.56378039306</v>
+        <v>46588.82585495742</v>
       </c>
       <c r="K6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.00366494</v>
       </c>
       <c r="L6" t="n">
-        <v>214228.7415903757</v>
+        <v>214194.00366494</v>
       </c>
       <c r="M6" t="n">
-        <v>81621.44786144891</v>
+        <v>81586.70993601318</v>
       </c>
       <c r="N6" t="n">
-        <v>214228.7415903756</v>
+        <v>214194.00366494</v>
       </c>
       <c r="O6" t="n">
-        <v>214228.7415903755</v>
+        <v>214194.00366494</v>
       </c>
       <c r="P6" t="n">
-        <v>214228.7415903755</v>
+        <v>214194.00366494</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>175.5315227087963</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>192.0615637201609</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.38002269874167</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>2.576550179450464</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>116.6098898760043</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.41194187722419</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.29848747195288</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>129.7291591644775</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100.956871905204</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>12.14208016757613</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.66193522954046</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>200.0851943315603</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,13 +32315,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922481</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.25823202432754</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015956</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
